--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-689838.3873531603</v>
+        <v>-634855.729637627</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17369085.08859303</v>
+        <v>16739564.35404541</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484445</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9491214.064363806</v>
+        <v>9493702.46089923</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -710,19 +710,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>206.0728918962065</v>
+        <v>154.1285617603239</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -820,22 +820,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>27.33721772847602</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -871,19 +871,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>172.6384344839958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>34.7831602542068</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>158.8699357521933</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,10 +1054,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>109.3457331804541</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4898091149242</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>97.82482610834938</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>73.37049486931492</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>32.13570000719074</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1342,7 +1342,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>192.1927963373143</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>213.8412294702636</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.41998251574487</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>114.0179214359474</v>
+        <v>333.3166121640788</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>124.0599116349195</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>77.84041448886897</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.24836057249206</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>335.9565853620511</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2008,13 +2008,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>134.8238954239898</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2059,13 +2059,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>139.9514671241873</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>151.0441785516934</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011215</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>288.2452674932309</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2239,13 +2239,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>82.43648595643947</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225773</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3199,7 +3199,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742935058</v>
+        <v>4.967932742933594</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T37" t="n">
         <v>227.1849416185819</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277824</v>
+        <v>122.2674422277807</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934448</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>417.5253377496635</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385531</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E41" t="n">
         <v>413.2012870545404</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934448</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934448</v>
+        <v>4.967932742933144</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.8743158913576</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C2" t="n">
-        <v>520.7722471151849</v>
+        <v>944.2701990826091</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9028663300335</v>
+        <v>912.4008182974577</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>857.0776321906106</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>857.0776321906106</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>857.0776321906106</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>857.0776321906106</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V2" t="n">
-        <v>1405.37712000546</v>
+        <v>2210.656309568784</v>
       </c>
       <c r="W2" t="n">
-        <v>1000.521665416493</v>
+        <v>1805.800854979818</v>
       </c>
       <c r="X2" t="n">
-        <v>985.4196060362079</v>
+        <v>1386.658391559128</v>
       </c>
       <c r="Y2" t="n">
-        <v>981.1738863762654</v>
+        <v>1382.412671899186</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.0966550925557</v>
+        <v>990.3147246321321</v>
       </c>
       <c r="C4" t="n">
-        <v>199.5349435757807</v>
+        <v>817.753013115357</v>
       </c>
       <c r="D4" t="n">
-        <v>199.5349435757807</v>
+        <v>651.8750203168797</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757807</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>983.6892855326716</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>738.2975308660841</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>563.9152738115429</v>
+        <v>1182.133343351119</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>956.3642220164563</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C5" t="n">
-        <v>922.2621532402836</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>437.0247332457074</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>857.0776321906106</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1402.826622090155</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>997.9711675011879</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>982.8691081209026</v>
+        <v>2508.771093304892</v>
       </c>
       <c r="Y5" t="n">
-        <v>978.6233884609601</v>
+        <v>2504.525373644949</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>745.110186124424</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>634.6599505886118</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>634.6599505886118</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>761.43086230084</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2389.112579835562</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>2110.679579088667</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.348475529303</v>
+        <v>1823.724070959097</v>
       </c>
       <c r="W7" t="n">
-        <v>1164.348475529303</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="X7" t="n">
-        <v>1164.348475529303</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>936.9288048434112</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1452.704096154202</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>1014.561623337626</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>578.6518385120703</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E8" t="n">
-        <v>144.8770936703655</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>46.0641380053661</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>46.0641380053661</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>46.0641380053661</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>481.318825458284</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1051.362533274689</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1051.362533274689</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1051.362533274689</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1051.362533274689</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1051.362533274689</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1587.554049556653</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2134.052835515248</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2303.206900268305</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2303.206900268305</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.206900268305</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2303.206900268305</v>
+        <v>2595.949215452322</v>
       </c>
       <c r="V8" t="n">
-        <v>2303.206900268305</v>
+        <v>2233.332265386148</v>
       </c>
       <c r="W8" t="n">
-        <v>2302.391849719742</v>
+        <v>2232.517214837585</v>
       </c>
       <c r="X8" t="n">
-        <v>2287.289790339457</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y8" t="n">
-        <v>1879.00366663911</v>
+        <v>2213.169435797358</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>552.2358829966589</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>445.7794218333012</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>350.6891329798544</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>256.5687183068081</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>173.1848799229697</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>87.79979018915363</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>72.12781116582369</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>396.686136132036</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>966.7298439484414</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1592.131121389835</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1709.303899484175</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1645.848461932558</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1515.66981826316</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1339.333271263128</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1140.215753325127</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>954.8929990583213</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>800.0255632972013</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>673.5397840764221</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>847.9224235959257</v>
+        <v>966.5813843420327</v>
       </c>
       <c r="C10" t="n">
-        <v>675.3607120791506</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
-        <v>509.4827192806733</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>477.0224162431069</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>300.3153622048631</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>134.7240872306908</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>134.7240872306908</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>132.643823170056</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>407.4022777411915</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>825.6121595091525</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1285.096026690065</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1727.35482984771</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2147.024079073492</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2147.024079073492</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2303.206900268305</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2281.789078973677</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2122.547710271673</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2122.547710271673</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1844.114709524778</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1557.159201395209</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1285.1327969815</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1039.741042314913</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1039.741042314913</v>
+        <v>966.5813843420327</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2228.318629841467</v>
+        <v>2306.511711202299</v>
       </c>
       <c r="C11" t="n">
-        <v>1790.17615702489</v>
+        <v>1868.369238385723</v>
       </c>
       <c r="D11" t="n">
-        <v>1354.266372199335</v>
+        <v>1432.459453560167</v>
       </c>
       <c r="E11" t="n">
-        <v>920.49162735763</v>
+        <v>998.6847087184624</v>
       </c>
       <c r="F11" t="n">
-        <v>492.6241977668378</v>
+        <v>782.6834668293072</v>
       </c>
       <c r="G11" t="n">
-        <v>91.22636639010125</v>
+        <v>381.2856354525711</v>
       </c>
       <c r="H11" t="n">
-        <v>91.22636639010088</v>
+        <v>92.15548089578732</v>
       </c>
       <c r="I11" t="n">
-        <v>90.80957701724088</v>
+        <v>91.73869152292733</v>
       </c>
       <c r="J11" t="n">
-        <v>90.80957701724088</v>
+        <v>526.9933789758452</v>
       </c>
       <c r="K11" t="n">
-        <v>925.1598689754188</v>
+        <v>1361.343670934023</v>
       </c>
       <c r="L11" t="n">
-        <v>2000.219835228278</v>
+        <v>1361.343670934023</v>
       </c>
       <c r="M11" t="n">
-        <v>2000.219835228278</v>
+        <v>1361.343670934023</v>
       </c>
       <c r="N11" t="n">
-        <v>2562.835244705285</v>
+        <v>2487.07465437047</v>
       </c>
       <c r="O11" t="n">
-        <v>3543.014911275592</v>
+        <v>3467.254320940777</v>
       </c>
       <c r="P11" t="n">
-        <v>4371.324786108988</v>
+        <v>4295.564195774173</v>
       </c>
       <c r="Q11" t="n">
-        <v>4371.324786108988</v>
+        <v>4586.934576146366</v>
       </c>
       <c r="R11" t="n">
-        <v>4540.478850862044</v>
+        <v>4586.934576146366</v>
       </c>
       <c r="S11" t="n">
-        <v>4508.741494785534</v>
+        <v>4586.934576146366</v>
       </c>
       <c r="T11" t="n">
-        <v>4508.741494785534</v>
+        <v>4586.934576146366</v>
       </c>
       <c r="U11" t="n">
-        <v>4249.519192102551</v>
+        <v>4327.712273463383</v>
       </c>
       <c r="V11" t="n">
-        <v>3886.902242036377</v>
+        <v>3965.09532339721</v>
       </c>
       <c r="W11" t="n">
-        <v>3482.046787447411</v>
+        <v>3560.239868808243</v>
       </c>
       <c r="X11" t="n">
-        <v>3062.904324026721</v>
+        <v>3141.097405387554</v>
       </c>
       <c r="Y11" t="n">
-        <v>2654.618200326375</v>
+        <v>2732.811281687207</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>596.9813220085337</v>
+        <v>597.9104365142201</v>
       </c>
       <c r="C12" t="n">
-        <v>490.524860845176</v>
+        <v>491.4539753508624</v>
       </c>
       <c r="D12" t="n">
-        <v>395.4345719917292</v>
+        <v>396.3636864974156</v>
       </c>
       <c r="E12" t="n">
-        <v>301.3141573186829</v>
+        <v>302.2432718243693</v>
       </c>
       <c r="F12" t="n">
-        <v>217.9303189348445</v>
+        <v>218.8594334405309</v>
       </c>
       <c r="G12" t="n">
-        <v>132.5452292010284</v>
+        <v>133.4743437067148</v>
       </c>
       <c r="H12" t="n">
-        <v>90.80957701724088</v>
+        <v>91.73869152292733</v>
       </c>
       <c r="I12" t="n">
-        <v>116.8732501776985</v>
+        <v>117.8023646833849</v>
       </c>
       <c r="J12" t="n">
-        <v>441.4315751439108</v>
+        <v>442.3606896495972</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.137621769635</v>
+        <v>1097.066736275321</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.137621769635</v>
+        <v>1097.066736275321</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.137621769635</v>
+        <v>1097.066736275321</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.137621769635</v>
+        <v>1097.066736275321</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.137621769635</v>
+        <v>1097.066736275321</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.137621769635</v>
+        <v>1097.066736275321</v>
       </c>
       <c r="Q12" t="n">
-        <v>1636.87656040171</v>
+        <v>1637.805674907396</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.04933849605</v>
+        <v>1754.978453001736</v>
       </c>
       <c r="S12" t="n">
-        <v>1690.593900944433</v>
+        <v>1691.523015450119</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.415257275034</v>
+        <v>1561.344371780721</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.078710275003</v>
+        <v>1385.007824780689</v>
       </c>
       <c r="V12" t="n">
-        <v>1184.961192337002</v>
+        <v>1185.890306842688</v>
       </c>
       <c r="W12" t="n">
-        <v>999.6384380701961</v>
+        <v>1000.567552575882</v>
       </c>
       <c r="X12" t="n">
-        <v>844.771002309076</v>
+        <v>845.7001168147625</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.2852230882968</v>
+        <v>719.2143375939833</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.305614094172</v>
+        <v>942.2347285998585</v>
       </c>
       <c r="C13" t="n">
-        <v>768.743902577397</v>
+        <v>769.6730170830834</v>
       </c>
       <c r="D13" t="n">
-        <v>602.8659097789198</v>
+        <v>603.7950242846061</v>
       </c>
       <c r="E13" t="n">
-        <v>433.107906029657</v>
+        <v>434.0370205353435</v>
       </c>
       <c r="F13" t="n">
-        <v>256.4008519914132</v>
+        <v>257.3299664970997</v>
       </c>
       <c r="G13" t="n">
-        <v>90.80957701724083</v>
+        <v>91.73869152292733</v>
       </c>
       <c r="H13" t="n">
-        <v>90.80957701724088</v>
+        <v>91.73869152292733</v>
       </c>
       <c r="I13" t="n">
-        <v>90.80957701724088</v>
+        <v>91.73869152292733</v>
       </c>
       <c r="J13" t="n">
-        <v>177.3892621819307</v>
+        <v>178.3183766876172</v>
       </c>
       <c r="K13" t="n">
-        <v>452.1477167530663</v>
+        <v>453.0768312587528</v>
       </c>
       <c r="L13" t="n">
-        <v>870.3575985210274</v>
+        <v>871.2867130267139</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.84146570194</v>
+        <v>1330.770580207627</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.100268859585</v>
+        <v>1773.029383365271</v>
       </c>
       <c r="O13" t="n">
-        <v>2191.769518085366</v>
+        <v>2192.698632591053</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.276412055708</v>
+        <v>2540.205526561395</v>
       </c>
       <c r="Q13" t="n">
-        <v>2707.469186920041</v>
+        <v>2708.398301425727</v>
       </c>
       <c r="R13" t="n">
-        <v>2707.469186920041</v>
+        <v>2708.398301425727</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.230017877356</v>
+        <v>2690.159132383043</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.350571455811</v>
+        <v>2444.279685961498</v>
       </c>
       <c r="U13" t="n">
-        <v>2164.917570708917</v>
+        <v>2165.846685214603</v>
       </c>
       <c r="V13" t="n">
-        <v>1877.962062579347</v>
+        <v>1878.891177085033</v>
       </c>
       <c r="W13" t="n">
-        <v>1605.935658165638</v>
+        <v>1606.864772671325</v>
       </c>
       <c r="X13" t="n">
-        <v>1360.543903499051</v>
+        <v>1361.473018004737</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.124232813159</v>
+        <v>1134.053347318846</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.142920993212</v>
+        <v>2522.655246126038</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.000448176635</v>
+        <v>2084.512773309461</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.09066335108</v>
+        <v>1648.602988483906</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.315918509375</v>
+        <v>1214.828243642201</v>
       </c>
       <c r="F14" t="n">
-        <v>786.4484889185825</v>
+        <v>786.960814051409</v>
       </c>
       <c r="G14" t="n">
-        <v>385.0506575418465</v>
+        <v>385.5629826746729</v>
       </c>
       <c r="H14" t="n">
-        <v>95.92050298506268</v>
+        <v>96.43282811788912</v>
       </c>
       <c r="I14" t="n">
-        <v>95.50371361220269</v>
+        <v>96.43282811788912</v>
       </c>
       <c r="J14" t="n">
-        <v>530.7584010651207</v>
+        <v>531.687515570807</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.108693023299</v>
+        <v>1366.037807528985</v>
       </c>
       <c r="L14" t="n">
-        <v>2440.168659276158</v>
+        <v>2441.097773781844</v>
       </c>
       <c r="M14" t="n">
-        <v>3231.222955065087</v>
+        <v>2441.097773781844</v>
       </c>
       <c r="N14" t="n">
-        <v>3231.222955065087</v>
+        <v>2441.097773781844</v>
       </c>
       <c r="O14" t="n">
-        <v>3231.222955065087</v>
+        <v>3277.678680349409</v>
       </c>
       <c r="P14" t="n">
-        <v>4059.532829898483</v>
+        <v>4105.988555182805</v>
       </c>
       <c r="Q14" t="n">
-        <v>4606.031615857078</v>
+        <v>4652.487341141399</v>
       </c>
       <c r="R14" t="n">
-        <v>4775.185680610134</v>
+        <v>4821.641405894456</v>
       </c>
       <c r="S14" t="n">
-        <v>4775.185680610134</v>
+        <v>4737.989532078293</v>
       </c>
       <c r="T14" t="n">
-        <v>4555.118453483173</v>
+        <v>4517.922304951331</v>
       </c>
       <c r="U14" t="n">
-        <v>4295.896150800189</v>
+        <v>4517.922304951331</v>
       </c>
       <c r="V14" t="n">
-        <v>4180.726533188122</v>
+        <v>4181.238858320949</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.871078599155</v>
+        <v>3776.383403731982</v>
       </c>
       <c r="X14" t="n">
-        <v>3356.728615178466</v>
+        <v>3357.240940311292</v>
       </c>
       <c r="Y14" t="n">
-        <v>2948.442491478119</v>
+        <v>2948.954816610946</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>601.6754586034955</v>
+        <v>602.604573109182</v>
       </c>
       <c r="C15" t="n">
-        <v>495.2189974401377</v>
+        <v>496.1481119458242</v>
       </c>
       <c r="D15" t="n">
-        <v>400.128708586691</v>
+        <v>401.0578230923775</v>
       </c>
       <c r="E15" t="n">
-        <v>306.0082939136447</v>
+        <v>306.9374084193312</v>
       </c>
       <c r="F15" t="n">
-        <v>222.6244555298063</v>
+        <v>223.5535700354928</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2393657959902</v>
+        <v>138.1684803016767</v>
       </c>
       <c r="H15" t="n">
-        <v>95.50371361220269</v>
+        <v>96.43282811788912</v>
       </c>
       <c r="I15" t="n">
-        <v>121.5673867726603</v>
+        <v>122.4965012783467</v>
       </c>
       <c r="J15" t="n">
-        <v>121.5673867726603</v>
+        <v>447.0548262445591</v>
       </c>
       <c r="K15" t="n">
-        <v>121.5673867726603</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="L15" t="n">
-        <v>121.5673867726603</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="M15" t="n">
-        <v>121.5673867726603</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="N15" t="n">
-        <v>121.5673867726603</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="O15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="P15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="Q15" t="n">
-        <v>1641.570696996672</v>
+        <v>1642.499811502358</v>
       </c>
       <c r="R15" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.672589596698</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.217152045081</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.038508375683</v>
       </c>
       <c r="U15" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.701961375651</v>
       </c>
       <c r="V15" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.58444343765</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.261689170844</v>
       </c>
       <c r="X15" t="n">
-        <v>849.4651389040379</v>
+        <v>850.3942534097243</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.9793596832586</v>
+        <v>723.9084741889451</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1004.803870474821</v>
+        <v>965.1680342375048</v>
       </c>
       <c r="C16" t="n">
-        <v>832.2421589580463</v>
+        <v>792.6063227207297</v>
       </c>
       <c r="D16" t="n">
-        <v>666.364166159569</v>
+        <v>667.2932806652555</v>
       </c>
       <c r="E16" t="n">
-        <v>666.364166159569</v>
+        <v>667.2932806652555</v>
       </c>
       <c r="F16" t="n">
-        <v>489.6571121213252</v>
+        <v>490.5862266270116</v>
       </c>
       <c r="G16" t="n">
-        <v>324.0658371471528</v>
+        <v>324.9949516528393</v>
       </c>
       <c r="H16" t="n">
-        <v>184.1636628375273</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="I16" t="n">
-        <v>95.50371361220269</v>
+        <v>96.43282811788912</v>
       </c>
       <c r="J16" t="n">
-        <v>182.0833987768926</v>
+        <v>183.012513282579</v>
       </c>
       <c r="K16" t="n">
-        <v>456.8418533480281</v>
+        <v>457.7709678537145</v>
       </c>
       <c r="L16" t="n">
-        <v>875.0517351159891</v>
+        <v>875.9808496216756</v>
       </c>
       <c r="M16" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.464716802589</v>
       </c>
       <c r="N16" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.723519960233</v>
       </c>
       <c r="O16" t="n">
-        <v>2196.463654680328</v>
+        <v>2197.392769186014</v>
       </c>
       <c r="P16" t="n">
-        <v>2543.97054865067</v>
+        <v>2544.899663156356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="S16" t="n">
-        <v>2552.921954812999</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.042508391454</v>
+        <v>2467.212991599144</v>
       </c>
       <c r="U16" t="n">
-        <v>2228.415827089566</v>
+        <v>2188.779990852249</v>
       </c>
       <c r="V16" t="n">
-        <v>1941.460318959996</v>
+        <v>1901.82448272268</v>
       </c>
       <c r="W16" t="n">
-        <v>1669.433914546288</v>
+        <v>1629.798078308971</v>
       </c>
       <c r="X16" t="n">
-        <v>1424.0421598797</v>
+        <v>1384.406323642384</v>
       </c>
       <c r="Y16" t="n">
-        <v>1196.622489193808</v>
+        <v>1156.986652956492</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.142920993212</v>
+        <v>2523.072035498898</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.000448176635</v>
+        <v>2084.929562682321</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.09066335108</v>
+        <v>1649.019777856766</v>
       </c>
       <c r="E17" t="n">
-        <v>1214.315918509375</v>
+        <v>1215.245033015061</v>
       </c>
       <c r="F17" t="n">
-        <v>786.4484889185826</v>
+        <v>787.377603424269</v>
       </c>
       <c r="G17" t="n">
-        <v>385.0506575418464</v>
+        <v>385.9797720475328</v>
       </c>
       <c r="H17" t="n">
-        <v>95.92050298506268</v>
+        <v>96.84961749074911</v>
       </c>
       <c r="I17" t="n">
-        <v>95.50371361220269</v>
+        <v>96.43282811788912</v>
       </c>
       <c r="J17" t="n">
-        <v>510.7870950367994</v>
+        <v>531.687515570807</v>
       </c>
       <c r="K17" t="n">
-        <v>1345.137386994977</v>
+        <v>1366.037807528985</v>
       </c>
       <c r="L17" t="n">
-        <v>2420.197353247837</v>
+        <v>1366.037807528985</v>
       </c>
       <c r="M17" t="n">
-        <v>2420.197353247837</v>
+        <v>2466.653078532159</v>
       </c>
       <c r="N17" t="n">
-        <v>2420.197353247837</v>
+        <v>2466.653078532159</v>
       </c>
       <c r="O17" t="n">
-        <v>3400.377019818143</v>
+        <v>3446.832745102465</v>
       </c>
       <c r="P17" t="n">
-        <v>4228.686894651539</v>
+        <v>4275.142619935861</v>
       </c>
       <c r="Q17" t="n">
-        <v>4775.185680610134</v>
+        <v>4821.641405894456</v>
       </c>
       <c r="R17" t="n">
-        <v>4775.185680610134</v>
+        <v>4821.641405894456</v>
       </c>
       <c r="S17" t="n">
-        <v>4691.533806793971</v>
+        <v>4737.989532078293</v>
       </c>
       <c r="T17" t="n">
-        <v>4471.46657966701</v>
+        <v>4737.989532078293</v>
       </c>
       <c r="U17" t="n">
-        <v>4212.244276984026</v>
+        <v>4478.767229395309</v>
       </c>
       <c r="V17" t="n">
-        <v>3849.627326917853</v>
+        <v>4116.150279329136</v>
       </c>
       <c r="W17" t="n">
-        <v>3444.771872328886</v>
+        <v>3776.800193104842</v>
       </c>
       <c r="X17" t="n">
-        <v>3025.629408908197</v>
+        <v>3357.657729684152</v>
       </c>
       <c r="Y17" t="n">
-        <v>2617.34328520785</v>
+        <v>2949.371605983806</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601.6754586034955</v>
+        <v>602.604573109182</v>
       </c>
       <c r="C18" t="n">
-        <v>495.2189974401377</v>
+        <v>496.1481119458242</v>
       </c>
       <c r="D18" t="n">
-        <v>400.128708586691</v>
+        <v>401.0578230923775</v>
       </c>
       <c r="E18" t="n">
-        <v>306.0082939136447</v>
+        <v>306.9374084193312</v>
       </c>
       <c r="F18" t="n">
-        <v>222.6244555298063</v>
+        <v>223.5535700354928</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2393657959902</v>
+        <v>138.1684803016767</v>
       </c>
       <c r="H18" t="n">
-        <v>95.50371361220269</v>
+        <v>96.43282811788912</v>
       </c>
       <c r="I18" t="n">
-        <v>121.5673867726603</v>
+        <v>122.4965012783467</v>
       </c>
       <c r="J18" t="n">
-        <v>446.1257117388726</v>
+        <v>447.0548262445591</v>
       </c>
       <c r="K18" t="n">
-        <v>446.1257117388726</v>
+        <v>447.0548262445591</v>
       </c>
       <c r="L18" t="n">
-        <v>446.1257117388726</v>
+        <v>447.0548262445591</v>
       </c>
       <c r="M18" t="n">
-        <v>446.1257117388726</v>
+        <v>447.0548262445591</v>
       </c>
       <c r="N18" t="n">
-        <v>446.1257117388726</v>
+        <v>447.0548262445591</v>
       </c>
       <c r="O18" t="n">
-        <v>446.1257117388726</v>
+        <v>447.0548262445591</v>
       </c>
       <c r="P18" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="Q18" t="n">
-        <v>1641.570696996672</v>
+        <v>1642.499811502358</v>
       </c>
       <c r="R18" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.672589596698</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.217152045081</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.038508375683</v>
       </c>
       <c r="U18" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.701961375651</v>
       </c>
       <c r="V18" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.58444343765</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.261689170844</v>
       </c>
       <c r="X18" t="n">
-        <v>849.4651389040379</v>
+        <v>850.3942534097243</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.9793596832586</v>
+        <v>723.9084741889451</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1174.561874224084</v>
+        <v>976.3274629598604</v>
       </c>
       <c r="C19" t="n">
-        <v>1002.000162707309</v>
+        <v>803.7657514430854</v>
       </c>
       <c r="D19" t="n">
-        <v>836.1221699088317</v>
+        <v>637.8877586446081</v>
       </c>
       <c r="E19" t="n">
-        <v>666.364166159569</v>
+        <v>501.7020056910831</v>
       </c>
       <c r="F19" t="n">
-        <v>489.6571121213252</v>
+        <v>324.9949516528393</v>
       </c>
       <c r="G19" t="n">
-        <v>324.0658371471528</v>
+        <v>324.9949516528393</v>
       </c>
       <c r="H19" t="n">
-        <v>184.1636628375273</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="I19" t="n">
-        <v>95.50371361220269</v>
+        <v>96.43282811788912</v>
       </c>
       <c r="J19" t="n">
-        <v>182.0833987768926</v>
+        <v>183.012513282579</v>
       </c>
       <c r="K19" t="n">
-        <v>456.8418533480281</v>
+        <v>457.7709678537145</v>
       </c>
       <c r="L19" t="n">
-        <v>875.0517351159891</v>
+        <v>875.9808496216756</v>
       </c>
       <c r="M19" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.464716802589</v>
       </c>
       <c r="N19" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.723519960233</v>
       </c>
       <c r="O19" t="n">
-        <v>2196.463654680328</v>
+        <v>2197.392769186014</v>
       </c>
       <c r="P19" t="n">
-        <v>2543.97054865067</v>
+        <v>2544.899663156356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="R19" t="n">
-        <v>2690.745502220374</v>
+        <v>2691.674616726061</v>
       </c>
       <c r="S19" t="n">
-        <v>2531.504133518371</v>
+        <v>2532.433248024057</v>
       </c>
       <c r="T19" t="n">
-        <v>2285.624687096826</v>
+        <v>2286.553801602513</v>
       </c>
       <c r="U19" t="n">
-        <v>2007.191686349931</v>
+        <v>2008.120800855618</v>
       </c>
       <c r="V19" t="n">
-        <v>2007.191686349931</v>
+        <v>1721.165292726048</v>
       </c>
       <c r="W19" t="n">
-        <v>1735.165281936223</v>
+        <v>1449.13888831234</v>
       </c>
       <c r="X19" t="n">
-        <v>1593.800163628963</v>
+        <v>1203.747133645752</v>
       </c>
       <c r="Y19" t="n">
-        <v>1366.380492943071</v>
+        <v>976.3274629598604</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2521.726131620351</v>
+        <v>2237.499440007264</v>
       </c>
       <c r="C20" t="n">
-        <v>2083.583658803774</v>
+        <v>2084.929562682321</v>
       </c>
       <c r="D20" t="n">
-        <v>1647.673873978219</v>
+        <v>1649.019777856766</v>
       </c>
       <c r="E20" t="n">
-        <v>1213.899129136514</v>
+        <v>1215.245033015061</v>
       </c>
       <c r="F20" t="n">
-        <v>786.0316995457216</v>
+        <v>787.377603424269</v>
       </c>
       <c r="G20" t="n">
-        <v>384.6338681689855</v>
+        <v>385.9797720475328</v>
       </c>
       <c r="H20" t="n">
-        <v>95.50371361220269</v>
+        <v>96.84961749074911</v>
       </c>
       <c r="I20" t="n">
-        <v>95.50371361220269</v>
+        <v>96.43282811788912</v>
       </c>
       <c r="J20" t="n">
-        <v>341.633030283743</v>
+        <v>531.687515570807</v>
       </c>
       <c r="K20" t="n">
-        <v>1175.983322241921</v>
+        <v>531.687515570807</v>
       </c>
       <c r="L20" t="n">
-        <v>2251.04328849478</v>
+        <v>1606.747481823666</v>
       </c>
       <c r="M20" t="n">
-        <v>2251.04328849478</v>
+        <v>2763.795317034217</v>
       </c>
       <c r="N20" t="n">
-        <v>2251.04328849478</v>
+        <v>3889.526300470664</v>
       </c>
       <c r="O20" t="n">
-        <v>3231.222955065087</v>
+        <v>4821.641405894456</v>
       </c>
       <c r="P20" t="n">
-        <v>4059.532829898483</v>
+        <v>4821.641405894456</v>
       </c>
       <c r="Q20" t="n">
-        <v>4606.031615857078</v>
+        <v>4821.641405894456</v>
       </c>
       <c r="R20" t="n">
-        <v>4775.185680610134</v>
+        <v>4821.641405894456</v>
       </c>
       <c r="S20" t="n">
-        <v>4691.533806793971</v>
+        <v>4737.989532078293</v>
       </c>
       <c r="T20" t="n">
-        <v>4471.46657966701</v>
+        <v>4517.922304951331</v>
       </c>
       <c r="U20" t="n">
-        <v>4471.46657966701</v>
+        <v>4258.700002268348</v>
       </c>
       <c r="V20" t="n">
-        <v>4180.309743815261</v>
+        <v>3896.083052202174</v>
       </c>
       <c r="W20" t="n">
-        <v>3775.454289226294</v>
+        <v>3491.227597613208</v>
       </c>
       <c r="X20" t="n">
-        <v>3356.311825805605</v>
+        <v>3072.085134192519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2948.025702105258</v>
+        <v>2663.799010492172</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.6754586034955</v>
+        <v>602.604573109182</v>
       </c>
       <c r="C21" t="n">
-        <v>495.2189974401377</v>
+        <v>496.1481119458242</v>
       </c>
       <c r="D21" t="n">
-        <v>400.128708586691</v>
+        <v>401.0578230923775</v>
       </c>
       <c r="E21" t="n">
-        <v>306.0082939136447</v>
+        <v>306.9374084193312</v>
       </c>
       <c r="F21" t="n">
-        <v>222.6244555298063</v>
+        <v>223.5535700354928</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2393657959902</v>
+        <v>138.1684803016767</v>
       </c>
       <c r="H21" t="n">
-        <v>95.50371361220269</v>
+        <v>96.43282811788912</v>
       </c>
       <c r="I21" t="n">
-        <v>121.5673867726603</v>
+        <v>122.4965012783467</v>
       </c>
       <c r="J21" t="n">
-        <v>446.1257117388726</v>
+        <v>447.0548262445591</v>
       </c>
       <c r="K21" t="n">
-        <v>446.1257117388726</v>
+        <v>447.0548262445591</v>
       </c>
       <c r="L21" t="n">
-        <v>446.1257117388726</v>
+        <v>447.0548262445591</v>
       </c>
       <c r="M21" t="n">
-        <v>446.1257117388726</v>
+        <v>447.0548262445591</v>
       </c>
       <c r="N21" t="n">
-        <v>446.1257117388726</v>
+        <v>447.0548262445591</v>
       </c>
       <c r="O21" t="n">
-        <v>446.1257117388726</v>
+        <v>447.0548262445591</v>
       </c>
       <c r="P21" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="Q21" t="n">
-        <v>1641.570696996672</v>
+        <v>1642.499811502358</v>
       </c>
       <c r="R21" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.672589596698</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.217152045081</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.038508375683</v>
       </c>
       <c r="U21" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.701961375651</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.58444343765</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.261689170844</v>
       </c>
       <c r="X21" t="n">
-        <v>849.4651389040379</v>
+        <v>850.3942534097243</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.9793596832586</v>
+        <v>723.9084741889451</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1008.683881425607</v>
+        <v>784.5088442408733</v>
       </c>
       <c r="C22" t="n">
-        <v>836.1221699088318</v>
+        <v>667.2932806652555</v>
       </c>
       <c r="D22" t="n">
-        <v>836.1221699088318</v>
+        <v>667.2932806652555</v>
       </c>
       <c r="E22" t="n">
-        <v>666.3641661595691</v>
+        <v>667.2932806652555</v>
       </c>
       <c r="F22" t="n">
-        <v>489.6571121213253</v>
+        <v>490.5862266270116</v>
       </c>
       <c r="G22" t="n">
-        <v>324.065837147153</v>
+        <v>324.9949516528393</v>
       </c>
       <c r="H22" t="n">
-        <v>184.1636628375273</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="I22" t="n">
-        <v>95.50371361220269</v>
+        <v>96.43282811788912</v>
       </c>
       <c r="J22" t="n">
-        <v>182.0833987768926</v>
+        <v>183.012513282579</v>
       </c>
       <c r="K22" t="n">
-        <v>456.8418533480281</v>
+        <v>457.7709678537145</v>
       </c>
       <c r="L22" t="n">
-        <v>875.0517351159891</v>
+        <v>875.9808496216756</v>
       </c>
       <c r="M22" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.464716802589</v>
       </c>
       <c r="N22" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.723519960233</v>
       </c>
       <c r="O22" t="n">
-        <v>2196.463654680328</v>
+        <v>2197.392769186014</v>
       </c>
       <c r="P22" t="n">
-        <v>2543.97054865067</v>
+        <v>2544.899663156356</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="R22" t="n">
-        <v>2712.163323515002</v>
+        <v>2691.674616726061</v>
       </c>
       <c r="S22" t="n">
-        <v>2552.921954812999</v>
+        <v>2532.433248024057</v>
       </c>
       <c r="T22" t="n">
-        <v>2307.042508391454</v>
+        <v>2286.553801602513</v>
       </c>
       <c r="U22" t="n">
-        <v>2028.609507644559</v>
+        <v>2008.120800855618</v>
       </c>
       <c r="V22" t="n">
-        <v>1945.340329910782</v>
+        <v>1721.165292726048</v>
       </c>
       <c r="W22" t="n">
-        <v>1673.313925497073</v>
+        <v>1449.13888831234</v>
       </c>
       <c r="X22" t="n">
-        <v>1427.922170830486</v>
+        <v>1203.747133645752</v>
       </c>
       <c r="Y22" t="n">
-        <v>1200.502500144594</v>
+        <v>976.3274629598604</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,43 +6470,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
         <v>780.1951658309357</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130894</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.801834709349</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="35">
@@ -7072,19 +7072,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.359044888629</v>
+        <v>910.3590448886293</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030278</v>
+        <v>760.8807595030281</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666413</v>
+        <v>607.5224631666415</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412738</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799776</v>
       </c>
       <c r="H37" t="n">
         <v>174.5210820832282</v>
@@ -7093,7 +7093,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>204.9138786708293</v>
       </c>
       <c r="K37" t="n">
         <v>495.7456864773249</v>
@@ -7108,31 +7108,31 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885578</v>
+        <v>2699.64750088558</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2470.167761876911</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2208.134468542892</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1937.578667826199</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1681.951970825367</v>
       </c>
       <c r="X37" t="n">
         <v>1452.959923571655</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961501</v>
@@ -7166,10 +7166,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7181,43 +7181,43 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2523.346856428594</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428594</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998901</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832297</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574027</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278743</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936678</v>
+        <v>905.6649082936664</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080667</v>
+        <v>756.1866229080651</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716801</v>
+        <v>602.8283265716785</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463125</v>
+        <v>442.5209799463108</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850163</v>
+        <v>293.3294123850146</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,34 +7348,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
         <v>1166.762996961502</v>
@@ -7403,10 +7403,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7418,25 +7418,25 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>3334.372458245845</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>3334.372458245845</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T41" t="n">
         <v>4607.415497673521</v>
@@ -7482,10 +7482,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936668</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463114</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7576,43 +7576,43 @@
         <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1400.892005301956</v>
       </c>
       <c r="N43" t="n">
         <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156102</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703676</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7649,25 +7649,25 @@
         <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>540.3167323207291</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>1615.376698573589</v>
       </c>
       <c r="M44" t="n">
-        <v>3334.372458245845</v>
+        <v>2772.424533784139</v>
       </c>
       <c r="N44" t="n">
-        <v>3334.372458245845</v>
+        <v>3898.155517220586</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
@@ -7676,22 +7676,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="45">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F46" t="n">
         <v>442.520979946312</v>
@@ -7828,28 +7828,28 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,10 +8143,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>407.152590549595</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,22 +8371,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>369.8475292559658</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>575.8017250670762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>541.6075922040036</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>575.8017250670762</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>85.51751394880648</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>157.7604254493062</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>568.298393411118</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,10 +8708,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>294.3135155274686</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,13 +8933,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>799.0447432211404</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>845.0312187551158</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9003,10 +9003,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>989.1559309009454</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>419.4781630551483</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1111.732596972903</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>248.6154713853943</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>941.5304095189817</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.93455261497138</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11066,13 +11066,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>901.152332228356</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>901.152332228357</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11297,28 +11297,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>7.571051709084259</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>901.152332228356</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>157.8361824242051</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>209.7475258246207</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>51.3953725622565</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>244.9728591295643</v>
+        <v>25.67416840143295</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>40.159301235573</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -23701,13 +23701,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>197.8082562505567</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>327.7882142075666</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>64.85031468102591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>33.23652828778035</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>102.9863699957343</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>282.7168695367176</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>70.74551307228086</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>54.79268646174569</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>201.6494670918344</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.961720254774264e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.151079231931362e-12</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.34647848426539e-12</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>837160.4924254845</v>
+        <v>817411.1828150605</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>837160.4924254845</v>
+        <v>839654.7928370179</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>838714.2386598591</v>
+        <v>839654.7928370179</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760402.550707445</v>
+        <v>766054.9662992473</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>788960.0758747092</v>
+        <v>794612.4914665109</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>788960.0758747091</v>
+        <v>794612.4914665109</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>788960.0758747092</v>
+        <v>794612.4914665109</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107229.4639780817</v>
+        <v>104359.320749442</v>
       </c>
       <c r="C2" t="n">
         <v>107229.4639780817</v>
@@ -26320,16 +26320,16 @@
         <v>107229.4639780817</v>
       </c>
       <c r="E2" t="n">
-        <v>96527.94440303816</v>
+        <v>97245.4802101981</v>
       </c>
       <c r="F2" t="n">
-        <v>100153.128457286</v>
+        <v>100870.6642644459</v>
       </c>
       <c r="G2" t="n">
-        <v>100153.128457286</v>
+        <v>100870.6642644459</v>
       </c>
       <c r="H2" t="n">
-        <v>100153.128457286</v>
+        <v>100870.6642644459</v>
       </c>
       <c r="I2" t="n">
         <v>105371.5168274705</v>
@@ -26344,7 +26344,7 @@
         <v>105371.5168274705</v>
       </c>
       <c r="M2" t="n">
-        <v>107229.4639780818</v>
+        <v>107229.4639780817</v>
       </c>
       <c r="N2" t="n">
         <v>107229.4639780817</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>47062.26763611587</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>167000.0461160944</v>
+        <v>143084.0826105967</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510031</v>
+        <v>16812.40227510025</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22460.77347719299</v>
+        <v>19372.38524635999</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>38344.77152333066</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>152372.8480649384</v>
+        <v>132411.7197519882</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>113939.9369397729</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
-        <v>142180.0375455023</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13049.64047893333</v>
+        <v>13146.6443504247</v>
       </c>
       <c r="F4" t="n">
-        <v>13539.73015058708</v>
+        <v>13636.73402207845</v>
       </c>
       <c r="G4" t="n">
-        <v>13539.73015058708</v>
+        <v>13636.73402207845</v>
       </c>
       <c r="H4" t="n">
-        <v>13539.73015058712</v>
+        <v>13636.73402207845</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26442,22 +26442,22 @@
         <v>14245.20557049264</v>
       </c>
       <c r="K4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049259</v>
       </c>
       <c r="L4" t="n">
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>19587.56338712591</v>
+        <v>19587.5633871259</v>
       </c>
       <c r="N4" t="n">
-        <v>29443.15222066925</v>
+        <v>29443.15222066921</v>
       </c>
       <c r="O4" t="n">
-        <v>29443.15222066922</v>
+        <v>29443.15222066921</v>
       </c>
       <c r="P4" t="n">
-        <v>29443.15222066925</v>
+        <v>29443.15222066921</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>68636.34488407822</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69015.27853310306</v>
+        <v>69721.40555742476</v>
       </c>
       <c r="F5" t="n">
-        <v>72582.82234527403</v>
+        <v>73288.94936959572</v>
       </c>
       <c r="G5" t="n">
-        <v>72582.82234527403</v>
+        <v>73288.94936959572</v>
       </c>
       <c r="H5" t="n">
-        <v>72582.82234527403</v>
+        <v>73288.94936959572</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,10 +26503,10 @@
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="P5" t="n">
         <v>75515.61472608971</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-269686.8646839615</v>
+        <v>-307528.7161264914</v>
       </c>
       <c r="C6" t="n">
-        <v>-127495.5640242516</v>
+        <v>-89113.91380881128</v>
       </c>
       <c r="D6" t="n">
-        <v>-150649.1860876146</v>
+        <v>-89113.91380881122</v>
       </c>
       <c r="E6" t="n">
-        <v>-152537.0207250926</v>
+        <v>-128831.4521053466</v>
       </c>
       <c r="F6" t="n">
-        <v>-2781.82631367541</v>
+        <v>-2946.906398748964</v>
       </c>
       <c r="G6" t="n">
-        <v>14030.57596142487</v>
+        <v>13865.4958763513</v>
       </c>
       <c r="H6" t="n">
-        <v>14030.57596142487</v>
+        <v>13865.4958763513</v>
       </c>
       <c r="I6" t="n">
-        <v>-9052.700826007684</v>
+        <v>-5987.536934557317</v>
       </c>
       <c r="J6" t="n">
-        <v>-97606.39269380487</v>
+        <v>-161266.5004059035</v>
       </c>
       <c r="K6" t="n">
-        <v>13408.07265118531</v>
+        <v>13384.84831180273</v>
       </c>
       <c r="L6" t="n">
-        <v>-24936.69887214534</v>
+        <v>13384.84831180266</v>
       </c>
       <c r="M6" t="n">
-        <v>-143814.1060122433</v>
+        <v>-123852.9776992931</v>
       </c>
       <c r="N6" t="n">
+        <v>2270.697031322794</v>
+      </c>
+      <c r="O6" t="n">
         <v>2270.697031322779</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2270.697031322721</v>
       </c>
       <c r="P6" t="n">
         <v>2270.697031322765</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>575.8017250670762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1135.119712715511</v>
+        <v>1146.733644036592</v>
       </c>
       <c r="F4" t="n">
-        <v>1193.796420152534</v>
+        <v>1205.410351473614</v>
       </c>
       <c r="G4" t="n">
-        <v>1193.796420152534</v>
+        <v>1205.410351473614</v>
       </c>
       <c r="H4" t="n">
-        <v>1193.796420152534</v>
+        <v>1205.410351473614</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5058675469719</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>559.3179876484347</v>
+        <v>479.2184374287346</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702251</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.46408323221181</v>
+        <v>72.85015191113145</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.5058675469719</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>559.3179876484347</v>
+        <v>479.2184374287346</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.5058675469719</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>559.3179876484347</v>
+        <v>479.2184374287346</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702251</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>152.9178886693052</v>
+        <v>47.02603638098279</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>140.7232059832941</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.50703949503699</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27670,16 +27670,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>324.2076203113049</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>256.0811030342891</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>61.49036122115322</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>122.9308428424051</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>325.7639291865349</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>183.2595847868383</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>135.9247237045794</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>32.95267764171848</v>
       </c>
     </row>
     <row r="11">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-7.139488711348772e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D41" t="n">
-        <v>16.2357103387468</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874739</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,16 +34863,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>407.152590549595</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>369.8475292559658</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>575.8017250670762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>541.6075922040036</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>575.8017250670762</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>85.51751394880648</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>157.7604254493062</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>568.298393411118</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>294.3135155274686</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,13 +35653,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>799.0447432211404</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>845.0312187551158</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35723,10 +35723,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>989.1559309009454</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35808,10 +35808,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>419.4781630551483</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1111.732596972903</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36045,10 +36045,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>248.6154713853943</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>941.5304095189817</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36282,10 +36282,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
         <v>480.360828703306</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.93455261497138</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
         <v>293.7695028348439</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209006</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>901.152332228356</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>901.152332228357</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
         <v>293.7695028348439</v>
@@ -37944,16 +37944,16 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033056</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343477</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
         <v>186.1274021209015</v>
@@ -38017,28 +38017,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>7.571051709084259</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>901.152332228356</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
